--- a/ARGs-OAP/ORF-mode-GMGC/sargfam_name_normalization.xlsx
+++ b/ARGs-OAP/ORF-mode-GMGC/sargfam_name_normalization.xlsx
@@ -14,45 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="303">
-  <si>
-    <t>gene_symbol</t>
-  </si>
-  <si>
-    <t>inconsistent(no references for normalization)</t>
-  </si>
-  <si>
-    <t>inconsistent(there are sarg references for normalization)</t>
-  </si>
-  <si>
-    <t>inconsistent(there are other database references for normalization)</t>
-  </si>
-  <si>
-    <t>consistant or not consistant(but can normalize easily by case or punctuation)</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>gene_symbol_changed</t>
-  </si>
-  <si>
-    <t>reference note</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="331">
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Yellow background means the original/normalized gene_symbol that cannot map to ARO according to Gene Name in CARD of resfinder_ncbi_sarg_resfinderfg_deeparg_ARO_mapping.txt.</t>
+  </si>
+  <si>
+    <t>Black word means gene_symbol can get ARO by searching gene_symbol in Original ID  of resfinder_ncbi_sarg_resfinderfg_deeparg_ARO_mapping.txt</t>
+  </si>
+  <si>
+    <t>Green word means gene_symbol can get ARO by searching gene_symbol in CARD manually</t>
+  </si>
+  <si>
+    <t>Red word means gene_symbol that still cannot map ARO in the end.</t>
+  </si>
+  <si>
+    <t>gene_symbol(selected from SargFam hmm family name)</t>
+  </si>
+  <si>
+    <t>Number of hits</t>
+  </si>
+  <si>
+    <t>ARO</t>
+  </si>
+  <si>
+    <t>normalized gene_symbol</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
   <si>
     <t>aac_2___I</t>
   </si>
   <si>
+    <t>aac(2')-I</t>
+  </si>
+  <si>
+    <t>Don't know its exact Sub-Term(s): aac(2')-Ia/b/c/d/e</t>
+  </si>
+  <si>
     <t>aac_3__I</t>
   </si>
   <si>
-    <t>18749 gi|489247580|ref|WP_003155734.1| AAC(3)-I family aminoglycoside 3-N-acetyltransferase [Pseudomonas aeruginosa] &gt;gi|61398377|gb|AAX46055.1| aminoglycoside acetyltransferase [Pseudomonas aeruginosa] &gt;gi|102231614|gb|ABF70493.1| aminoglycoside acetyltransferase AAC(3)-Ie [Pseudomonas aeruginosa] &gt;gi|156915244|emb|CAO78542.1| aminoglycoside acetyltransferase [Pseudomonas aeruginosa] &gt;gi|156915251|emb|CAO78548.1| aminoglycoside acetyltransferase [Pseudomonas aeruginosa] &gt;gi|190349998|emb|CAQ63463.1| aminoglycoside acetyltransferase [Pseudomonas aeruginosa] &gt;gi|306996583|gb|ADN22946.1| aminoglycoside acetyltransferase [Pseudomonas aeruginosa] &gt;gi|449327802|gb|AGE94112.1| aminoglycoside acetyltransferase [Pseudomonas aeruginosa] &gt;gi|506485031|gb|AGM16390.1| AAC(3)-Ie [Pseudomonas aeruginosa] &gt;gi|506485038|gb|AGM16396.1| AAC(3)-Ie [Pseudomonas aeruginosa] &gt;gi|506485045|gb|AGM16402.1| AAC(3)-Ie [Pseudomonas aeruginosa] &gt;gi|506485052|gb|AGM16408.1| AAC(3)-Ie [Pseudomonas aeruginosa] &gt;gi|522213065|gb|AGQ04645.1| aminoglycoside 3-N-acetyltransferase [Pseudomonas aeruginosa] &gt;gi|564837657|gb|ETD49305.1| hypothetical protein X922_14865 [Pseudomonas aeruginosa VRFPA08] &gt;gi|646263205|gb|AIB52504.1| AacC-A5 [Pseudomonas aeruginosa] &gt;gi|671385357|gb|KFF32322.1| gentamicin 3'-acetyltransferase [Pseudomonas aeruginosa VRFPA01] &gt;gi|821346311|dbj|BAR73398.1| aminoglycoside acetyltransferase [Pseudomonas aeruginosa] &gt;gi|925170815|gb|ALC79316.1| AAC(3)-Ie [Pseudomonas aeruginosa] &gt;gi|957761205|gb|ALQ28792.1| aminoglycoside 3-N-acetyltransferase [Pseudomonas aeruginosa] &gt;gi|968588394|gb|ALT83542.1| gentamicin 3'-acetyltransferase [Pseudomonas stutzeri] AAC(3)-Id 3002529 sarg，21277 CAM88357 Gentamicin 3'-acetyltransferase (Gentamicin acetyltransferase I) (Aminoglycoside N(3')-acetyltransferase I) (AAC(3)-I) [Acinetobacter baumannii] AAC(3)-Ib 3002530 sarg</t>
+    <t>aac(3)-I</t>
+  </si>
+  <si>
+    <t>Don't know its exact Sub-Term(s)</t>
   </si>
   <si>
     <t>aac_3__II</t>
   </si>
   <si>
-    <t>22247 ACI02996 AAC(3)-II [uncultured bacterium HHV35] AAC(3)-IIe 3004621 sarg，2878 499860203|WP_011540937.1|1|1|aac(3)-Ii|aac(3)-Ii|acetyltransferase|2|GENTAMICIN|AMINOGLYCOSIDE|aminoglycoside_N-acetyltransferase_AAC(3)-Ii AAC(3)-Ib 3002530 ncbi</t>
+    <t>AAC(3)-II</t>
   </si>
   <si>
     <t>aac_3__IIIa</t>
@@ -70,10 +85,13 @@
     <t>aac_3__VIII</t>
   </si>
   <si>
+    <t>ARO:3002542</t>
+  </si>
+  <si>
     <t>AAC(3)-VIIIa</t>
   </si>
   <si>
-    <t>6652 1028080888|WP_063840271.1|1|1|aac(3)-VIII|aac(3)-VIII|acetyltransferase|2|AMINOGLYCOSIDE|AMINOGLYCOSIDE|aminoglycoside_N-acetyltransferase_AAC(3)-VIII AAC(3)-VIIIa 3002542 ncbi</t>
+    <t>6652 1028080888|WP_063840271.1|1|1|aac(3)-VIII|aac(3)-VIII|acetyltransferase|2|AMINOGLYCOSIDE|AMINOGLYCOSIDE|aminoglycoside_N-acetyltransferase_AAC(3)-VIII AAC(3)-VIIIa 3002542 ncbi ;CARD only has one Sub-Term</t>
   </si>
   <si>
     <t>aac_6___31</t>
@@ -88,16 +106,22 @@
     <t>aadD</t>
   </si>
   <si>
-    <t>ANT(4')-Ib</t>
-  </si>
-  <si>
-    <t>21430 BAC00986 aminoglycoside adenyltransferase aadD [Staphylococcus aureus] ANT(4')-Ib 3003905 sarg</t>
+    <t>ARO:3000229</t>
+  </si>
+  <si>
+    <t>ANT(4')</t>
+  </si>
+  <si>
+    <t>Synonym(s)</t>
   </si>
   <si>
     <t>aadE</t>
   </si>
   <si>
-    <t>23743 AJ489618.1.orf2.gene.p01 streptomycin resistance protein. Encoded by gene aadE. ARO:3000225 ANT(6) [Campylobacter jejuni] aad(6) 3002628 sarg，22098 JQ861959.1.gene5.p01 aminoglycoside 6-adenylyltansferase. ANT(6')-Ia Curated. Encoded by gene aadE. ARO:3002626 ANT(6')-Ia. ARO:3000225 ANT(6) [Staphylococcus aureus] ANT(6)-Ia 3002626 sarg</t>
+    <t>ARO:3000225</t>
+  </si>
+  <si>
+    <t>ANT(6)</t>
   </si>
   <si>
     <t>aadK</t>
@@ -124,6 +148,15 @@
     <t>ant_2____I</t>
   </si>
   <si>
+    <t>ARO:3000230</t>
+  </si>
+  <si>
+    <t>ANT(2'')-Ia</t>
+  </si>
+  <si>
+    <t>CARD only has one Sub-Term</t>
+  </si>
+  <si>
     <t>ant_3____Ih_aac_6___IId</t>
   </si>
   <si>
@@ -136,16 +169,25 @@
     <t>aph_3_____III</t>
   </si>
   <si>
+    <t>ARO:3002647</t>
+  </si>
+  <si>
+    <t>APH(3')-IIIa</t>
+  </si>
+  <si>
+    <t>1893 CAA67773|FEATURES|aph(3''')-III|aminoglycoside|aph(3''')-III APH(3')-IIIa 3002647 deeparg;CARD only has one Sub-Term</t>
+  </si>
+  <si>
     <t>aph_3____I</t>
   </si>
   <si>
+    <t>aph(3'')-I</t>
+  </si>
+  <si>
     <t>aph_3___I</t>
   </si>
   <si>
-    <t>APH(3')-Ia</t>
-  </si>
-  <si>
-    <t>16866 Q03447 RecName: Full=Aminoglycoside 3'-phosphotransferase; AltName: Full=Kanamycin kinase, type I; AltName: Full=Neomycin-kanamycin phosphotransferase type I; AltName: Full=APH(3')-I; Short=APH(3')I APH(3')-Ia 3002641 sarg</t>
+    <t>aph(3')-I</t>
   </si>
   <si>
     <t>aph_3___IIb</t>
@@ -157,10 +199,13 @@
     <t>aph_4__I</t>
   </si>
   <si>
+    <t>aph(4)-I</t>
+  </si>
+  <si>
     <t>aph_6__I</t>
   </si>
   <si>
-    <t>12490 gi|516771669|ref|WP_018093204.1| APH(6)-I family aminoglycoside O-phosphotransferase [Streptomyces sp. FxanaC1] APH(6)-Ia 3002657 sarg，18605 gi|896427044|ref|WP_049361039.1| APH(6)-I family aminoglycoside O-phosphotransferase [Corynebacterium aurimucosum] APH(6)-Id 3002660 sarg</t>
+    <t>aph(6)-I</t>
   </si>
   <si>
     <t>arnA</t>
@@ -175,19 +220,34 @@
     <t>bicyclomycin_multidrug_efflux_protein_bcr</t>
   </si>
   <si>
+    <t>bcr-1</t>
+  </si>
+  <si>
+    <t>1563 YP_002237398|FEATURES|bicyclomycin-multidrug_efflux_protein_bcr|multidrug|bicyclomycin-multidrug_efflux_protein_bcr bcr-1 3003801 deeparg</t>
+  </si>
+  <si>
     <t>blaR1</t>
   </si>
   <si>
     <t>cat_chloramphenicol_acetyltransferase</t>
   </si>
   <si>
+    <t>no match</t>
+  </si>
+  <si>
     <t>catA</t>
   </si>
   <si>
     <t>catB</t>
   </si>
   <si>
-    <t>12290 gi|499386493|ref|WP_011073960.1| type B chloramphenicol O-acetyltransferase [Shewanella oneidensis] &gt;gi|24375781|ref|NP_719824.1| chloramphenicol O-acetyltransferase CatB [Shewanella oneidensis MR-1] &gt;gi|24350728|gb|AAN57268.1| chloramphenicol O-acetyltransferase CatB [Shewanella oneidensis MR-1] catB11 3004660 sarg，21829 gi|505206451|ref|WP_015393553.1| type A chloramphenicol O-acetyltransferase [Clostridium saccharoperbutylacetonicum] &gt;gi|451786267|gb|AGF57235.1| chloramphenicol acetyltransferase CatB [Clostridium saccharoperbutylacetonicum N1-4(HMT)] Clostridium butyricum catB 3002674 sarg</t>
+    <t>ARO:3002674</t>
+  </si>
+  <si>
+    <t>Clostridium butyricum catB</t>
+  </si>
+  <si>
+    <t>CARD ARO</t>
   </si>
   <si>
     <t>CfxA2</t>
@@ -202,7 +262,7 @@
     <t>cmlA</t>
   </si>
   <si>
-    <t>21607 AJ251806.1.gene1.p01 chloramphenicol/florfenicol exporter. Encoded by gene flo. floR Curated. ARO:3002705 floR. ARO:3002692 cmlA-like [Salmonella enterica subsp. enterica serovar Typhimurium] cmlA9 3005043 sarg，22062 AF078527.gene.p01 cmlA protein. Encoded by gene cmlA. cmlA1 Curated. ARO:3002693 cmlA1 [Pseudomonas aeruginosa] cmlA5 3002695 sarg</t>
+    <t>Escherichia coli mdfA</t>
   </si>
   <si>
     <t>CMY_2</t>
@@ -223,10 +283,7 @@
     <t>dfrA16</t>
   </si>
   <si>
-    <t>DfrA37</t>
-  </si>
-  <si>
-    <t>17053 gi|323714045|emb|CBZ41780.1| dfrA16 protein [Corynebacterium diphtheriae] DfrA37 3005347 sarg</t>
+    <t>ARO:3003014</t>
   </si>
   <si>
     <t>dfrA7</t>
@@ -247,13 +304,13 @@
     <t>emrD</t>
   </si>
   <si>
-    <t>22695 gi|499527904|emb|CCI74263.1| emrD [Klebsiella pneumoniae subsp. rhinoscleromatis SB3432] bcr-1 3003801 sarg，14331 NP_462699|[u'multidrug']|EmrD|unknown cmlA8 3004665 deeparg</t>
+    <t>ARO:3000309</t>
   </si>
   <si>
     <t>emrE</t>
   </si>
   <si>
-    <t>22102 P23895 RecName: Full=Multidrug transporter emrE; AltName: Full=Efflux-multidrug resistance protein emrE; AltName: Full=Methyl viologen resistance protein C; AltName: Full=Ethidium resistance protein Escherichia coli emrE 3004039 sarg，10633 gi:808660312:emb:CQD20591.1:|[u'multidrug']|emrE|emrE|unknown qacE 3005009 deeparg</t>
+    <t>ARO:3000264</t>
   </si>
   <si>
     <t>emrK</t>
@@ -274,16 +331,16 @@
     <t>erm_41_</t>
   </si>
   <si>
-    <t>Erm(37)</t>
-  </si>
-  <si>
-    <t>23472 gi|918624276|ref|WP_052524627.1| 23S rRNA (adenine(2058)-N(6))-methyltransferase Erm(41) [Mycobacterium abscessus] &gt;gi|899654765|emb|CPW42432.1| Probable methyltransferase [Mycobacterium abscessus] Erm(37) 3000392 sarg</t>
+    <t>ARO:3000603</t>
+  </si>
+  <si>
+    <t>Erm(41)</t>
   </si>
   <si>
     <t>ermB</t>
   </si>
   <si>
-    <t>19080 gi|490355791|ref|WP_004235564.1| MULTISPECIES: multidrug effux MFS transporter subunit EmrB [Morganella] &gt;gi|455420034|gb|AGG30364.1| Multidrug resistance protein B (ErmB) [Morganella morganii subsp. morganii KT] &gt;gi|721583805|gb|KGZ27082.1| multidrug resistance protein B [Morganella morganii] &gt;gi|796747199|gb|KJY05204.1| Multidrug export protein EmrB [Morganella morganii] &gt;gi|991905949|gb|AMG69160.1| multidrug resistance protein B [Morganella morganii] &gt;gi|1033290662|gb|OAR99868.1| multidrug resistance protein B [Morganella morganii] Klebsiella pneumoniae KpnH 3004597 sarg，23094 gi|446961536|ref|WP_001038792.1| MULTISPECIES: 23S rRNA (adenine(2058)-N(6))-methyltransferase Erm(B) [Firmicutes] &gt;gi|32470479|ref|NP_863164.1| erythromycin resistance transferase [Enterococcus faecium] &gt;gi|320152807|ref|YP_004172630.1| ErmB [Enterococcus faecium] &gt;gi|389870229|ref|YP_006377410.1| rRNA (adenine-N(6)-)-methyltransferase (plasmid) [Enterococcus faecium DO] &gt;gi|488766706|ref|YP_007908279.1| erythromycin resistance methylase (plasmid) [Enterococcus faecium] &gt;gi|11991160|gb|AAG42227.1|AF299292_1 erythromycin resistance methylase [Staphylococcus intermedius] &gt;gi|21886748|gb|AAM77891.1|AF516335_11 ermB methylase (plasmid) [Enterococcus faecium] &gt;gi|9963914|gb|AAG09761.1| erythromycin resistance methylase [Staphylococcus intermedius] &gt;gi|28849340|gb|AAO52847.1| erythromycin resistance transferase (plasmid) [Enterococcus faecium] &gt;gi|68196102|gb|EAN10533.1| rRNA (adenine-N(6)-)-methyltransferase [Enterococcus faecium DO] &gt;gi|257814846|gb|EEV43604.1| ribosomal RNA adenine dimethylase [Enterococcus faecium 1,230,933] &gt;gi|257819081|gb|EEV46409.1| ribosomal RNA adenine dimethylase [Enterococcus faecium 1,231,502] &gt;gi|257828505|gb|EEV55131.1| ribosomal RNA adenine dimethylase (plasmid) [Enterococcus faecium 1,231,410] &gt;gi|257831411|gb|EEV58018.1| ribosomal RNA adenine dimethylase (plasmid) [Enterococcus faecium 1,231,408] &gt;gi|260075352|gb|EEW63664.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium C68] &gt;gi|281336200|gb|ADA62749.1| rRNA adenine N-6-methyltransferase (Macrolide-lincosamide-streptogramin B resistance protein) (plasmid) [Enterococcus faecium] &gt;gi|308916861|gb|EFP62597.1| rRNA adenine N-6-methyltransferase [Erysipelotrichaceae bacterium 3_1_53] &gt;gi|313640723|gb|EFS05303.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium TX0133a04] &gt;gi|313645247|gb|EFS09827.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium TX0082] &gt;gi|319739759|gb|ADV60077.1| ErmB (plasmid) [Enterococcus faecium] &gt;gi|319809888|gb|EFW06276.1| rRNA adenine N-6-methyltransferase [Coprobacillus sp. 29_1] &gt;gi|323464898|gb|ADX77051.1| rRNA adenine N-6-methyltransferase [Staphylococcus pseudintermedius ED99] &gt;gi|364089542|gb|EHM32224.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium E4452] &gt;gi|373218504|gb|AEY63785.1| rRNA adenine N-6-methyltransferase [Clostridioides difficile] &gt;gi|383850679|gb|AFH54431.1| rRNA methylase [Enterococcus faecium] &gt;gi|383850684|gb|AFH54433.1| rRNA methylase [Enterococcus faecium] &gt;gi|383850694|gb|AFH54437.1| rRNA methylase [Enterococcus faecium] &gt;gi|383850703|gb|AFH54440.1| rRNA methylase [Enterococcus faecium] &gt;gi|387714378|gb|EIK02534.1| rRNA adenine N-6-methyltransferase [Staphylococcus aureus subsp. aureus VRS2] &gt;gi|387714413|gb|EIK02563.1| rRNA adenine N-6-methyltransferase [Staphylococcus aureus subsp. aureus VRS3a] &gt;gi|388535238|gb|AFK60428.1| rRNA (adenine-N(6)-)-methyltransferase (plasmid) [Enterococcus faecium DO] &gt;gi|402927903|gb|EJX47825.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium R499] &gt;gi|402940953|gb|EJX59722.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium R494] &gt;gi|402955065|gb|EJX72632.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium P1137] &gt;gi|402955492|gb|EJX73016.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium P1140] &gt;gi|402980610|gb|EJX96207.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium ERV168] &gt;gi|402982605|gb|EJX98059.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium ERV165] &gt;gi|402991489|gb|EJY06269.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium ERV1] &gt;gi|403001831|gb|EJY15852.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium E417] &gt;gi|403035490|gb|EJY46877.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium 506] &gt;gi|403038316|gb|EJY49535.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium 503] &gt;gi|409183657|gb|AFV27330.1| erythromycin resistance methylase (plasmid) [Enterococcus faecium] &gt;gi|430533710|gb|ELA74222.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0002] &gt;gi|430541192|gb|ELA81361.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0016] &gt;gi|430588976|gb|ELB27140.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0036] &gt;gi|430608618|gb|ELB45862.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0034] &gt;gi|430627363|gb|ELB63867.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0054] &gt;gi|457093830|gb|EMG24395.1| rRNA adenine N-6-methyltransferase (Macrolide-lincosamide-streptogramin B resistance protein) [Streptococcus parauberis KRS-02083] &gt;gi|486665328|gb|EOG04672.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0170] &gt;gi|486676688|gb|EOG15588.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0178] &gt;gi|486684274|gb|EOG22815.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0181] &gt;gi|486693039|gb|EOG31170.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0183] &gt;gi|486920679|gb|EOI51896.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0322] &gt;gi|486926676|gb|EOI57709.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0314] &gt;gi|486937827|gb|EOI68342.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0319] &gt;gi|486939782|gb|EOI70199.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0323] &gt;gi|486947398|gb|EOI77521.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0312] &gt;gi|487120867|gb|EOK46157.1| rRNA adenine N-6-methyltransferase [Enterococcus faecalis EnGen0064] &gt;gi|487253623|gb|EOL70728.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0320] &gt;gi|487320146|gb|EOM35332.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0256] &gt;gi|487321005|gb|EOM36168.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0255] &gt;gi|508155001|gb|EOT31741.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0376] &gt;gi|508176027|gb|EOT52496.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0375] &gt;gi|508212218|gb|EOT86413.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0375] &gt;gi|508216395|gb|EOT90567.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0376] &gt;gi|508222123|gb|EOT96261.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0377] &gt;gi|508224201|gb|EOT98320.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium EnGen0377] &gt;gi|531429182|gb|EQH19547.1| rRNA adenine N-6-methyltransferase [Clostridium difficile DA00211] &gt;gi|551098469|gb|ERT29855.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium BM4538] &gt;gi|551098475|gb|ERT29858.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium BM4538] &gt;gi|612145147|gb|EZP97714.1| SAM-dependent methyltransferase [Enterococcus faecium VRE0576] &gt;gi|695582138|gb|KGK74017.1| SAM-dependent methlyltransferase [Enterococcus faecium] &gt;gi|751195687|gb|KIL80839.1| SAM-dependent methlyltransferase [Enterococcus gallinarum] &gt;gi|816121013|gb|KKJ67846.1| SAM-dependent methlyltransferase [Enterococcus faecium MRSN 11639] &gt;gi|899652967|emb|CPW69555.1| 23S rRNA methyltransferase [Mycobacterium abscessus] &gt;gi|906426068|gb|KNC01567.1| SAM-dependent methyltransferase [Enterococcus faecium] &gt;gi|938507164|gb|ALJ52100.1| rRNA 23S methyltransferase (plasmid) [Enterococcus faecium] &gt;gi|967389101|gb|KTK60524.1| SAM-dependent methyltransferase [Enterococcus faecium] &gt;gi|969729848|gb|KUE82050.1| SAM-dependent methyltransferase [Enterococcus faecium] &gt;gi|984819983|gb|KWW60807.1| SAM-dependent methyltransferase [Enterococcus faecium] &gt;gi|985114772|gb|KWY10087.1| SAM-dependent methyltransferase [Enterococcus faecium] &gt;gi|985166754|gb|KWY58082.1| SAM-dependent methyltransferase [Enterococcus faecium] &gt;gi|985172145|gb|KWY63059.1| SAM-dependent methyltransferase [Enterococcus faecium] &gt;gi|1003372608|gb|KXW79609.1| SAM-dependent methyltransferase (plasmid) [Enterococcus faecium C68] &gt;gi|1003372643|gb|KXW79644.1| SAM-dependent methyltransferase (plasmid) [Enterococcus faecium C68] &gt;gi|1008423699|gb|AMQ98797.1| SAM-dependent methyltransferase (plasmid) [Enterococcus faecium] &gt;gi|1019989725|gb|KZK20544.1| SAM-dependent methlyltransferase [Staphylococcus pseudintermedius] &gt;gi|1020000494|gb|KZK31209.1| SAM-dependent methlyltransferase [Staphylococcus pseudintermedius] &gt;gi|1024766800|gb|ANB95383.1| 23S rRNA (adenine(2058)-N(6))-methyltransferase Erm(B) (plasmid) [Enterococcus faecium] &gt;gi|1036497867|emb|SAM49972.1| rRNA adenine N-6-methyltransferase [Enterococcus faecium] &gt;gi|1041926775|gb|ANP25478.1| rRNA adenine N-6-methyltransferase [Enterococcus faecalis] erm(45) 3004595 sarg</t>
+    <t>ARO:3000375</t>
   </si>
   <si>
     <t>ermC</t>
@@ -313,7 +370,7 @@
     <t>ermO</t>
   </si>
   <si>
-    <t>12523 AJ223970.1.gene1.p01 mono-methyl transferase. ErmO Curated. Encoded by gene srmA. ARO:3001303 ErmO [Streptomyces ambofaciens] ErmO-srmA 3001303 sarg，11383 NP_630197|[u'macrolide-lincosamide-streptogramin']|ErmO|unknown Erm(O)-lrm 3004652 deeparg</t>
+    <t>Not sure to choose which:12523 AJ223970.1.gene1.p01 mono-methyl transferase. ErmO Curated. Encoded by gene srmA. ARO:3001303 ErmO [Streptomyces ambofaciens] ErmO-srmA 3001303 sarg，11383 NP_630197|[u'macrolide-lincosamide-streptogramin']|ErmO|unknown Erm(O)-lrm 3004652 deeparg</t>
   </si>
   <si>
     <t>ermT</t>
@@ -331,16 +388,13 @@
     <t>floR</t>
   </si>
   <si>
-    <t>cmlA9</t>
-  </si>
-  <si>
-    <t>22736 gi|823643988|ref|WP_047089003.1| chloramphenicol/florfenicol efflux MFS transporter FloR [Escherichia coli] &gt;gi|822926413|gb|KLG51689.1| MFS transporter [Escherichia coli] &gt;gi|909902725|gb|KNF63723.1| MFS transporter [Escherichia coli] cmlA9 3005043 sarg</t>
+    <t>ARO:3002705</t>
   </si>
   <si>
     <t>fmtC</t>
   </si>
   <si>
-    <t>mprF</t>
+    <t>Listeria monocytogenes mprF</t>
   </si>
   <si>
     <t>12355 gi|916182247|ref|WP_050964278.1| phosphatidylglycerol lysyltransferase [Staphylococcus aureus] &gt;gi|897316538|emb|CPJ01333.1| FmtC (MrpF) protein involved in methicillin resistance / L-lysine modification of phosphatidylglycerol [Staphylococcus aureus] Listeria monocytogenes mprF 3003770 sarg</t>
@@ -349,7 +403,10 @@
     <t>fosA</t>
   </si>
   <si>
-    <t>12221 gi|779872998|ref|WP_045357408.1| MULTISPECIES: FosA/FosA2 family fosfomycin resistance glutathione transferase [Enterobacter cloacae complex] &gt;gi|771383245|gb|KJP15568.1| glutathione transferase [Enterobacter asburiae] &gt;gi|829293948|gb|KLP88387.1| glutathione transferase [Enterobacter asburiae] &gt;gi|923346480|gb|KOQ90467.1| glutathione transferase [Enterobacter asburiae] &gt;gi|938822449|gb|KPS95944.1| glutathione transferase [Enterobacter cloacae subsp. cloacae] &gt;gi|974867268|gb|KUQ49517.1| glutathione transferase [Enterobacter asburiae] &gt;gi|978008915|gb|KVJ15264.1| glutathione transferase [Enterobacter asburiae] &gt;gi|1014937299|emb|CZV92434.1| glutathione transferase fosA [Enterobacter cloacae] &gt;gi|1015246023|emb|CZV45503.1| glutathione transferase fosA [Enterobacter cloacae] &gt;gi|1015312853|emb|CZX13018.1| glutathione transferase fosA [Enterobacter cloacae] &gt;gi|1015392350|emb|CZY29689.1| glutathione transferase fosA [Enterobacter cloacae] &gt;gi|1017835116|emb|CZZ88696.1| glutathione transferase fosA [Enterobacter cloacae] &gt;gi|1017888125|emb|SAD44594.1| glutathione transferase fosA [Enterobacter cloacae] &gt;gi|1017925969|emb|SAF97401.1| glutathione transferase fosA [Enterobacter cloacae] &gt;gi|1018144199|emb|SAF35780.1| glutathione transferase fosA [Enterobacter cloacae] &gt;gi|1018157405|emb|SAD92330.1| glutathione transferase fosA [Enterobacter cloacae] &gt;gi|1018299692|emb|SAE63553.1| glutathione transferase fosA [Enterobacter cloacae] FosA2 3002804 sarg，2487 fosA_4_ACWU01000146 FosA 3000149 resfinder，8714 gi:1114603964:ref:WP_072081991.1:|[u'bleomycin_binding_protein']|BLMA|BLMA|unknown FosA 3000149 deeparg</t>
+    <t>ARO:3000149</t>
+  </si>
+  <si>
+    <t>FosA</t>
   </si>
   <si>
     <t>fosB</t>
@@ -385,9 +442,6 @@
     <t>kasugamycin_resistance_protein_ksgA</t>
   </si>
   <si>
-    <t>12859 A7ZW03 RecName: Full=Dimethyladenosine transferase; AltName: Full=S-adenosylmethionine-6-N', N'-adenosyl(rRNA) dimethyltransferase; AltName: Full=16S rRNA dimethylase; AltName: Full=High level kasugamycin resistance protein ksgA; AltName: Full=Kasugamycin dimethyltransferase Erm(34) 3000600 sarg，Q7N8V7 RecName: Full=Dimethyladenosine transferase; AltName: Full=S-adenosylmethionine-6-N', N'-adenosyl(rRNA) dimethyltransferase; AltName: Full=16S rRNA dimethylase; AltName: Full=High level kasugamycin resistance protein ksgA; AltName: Full=Kasugamycin dimethyltransferase erm(45) 3004595 sarg</t>
-  </si>
-  <si>
     <t>lmrB</t>
   </si>
   <si>
@@ -397,9 +451,6 @@
     <t>lsa</t>
   </si>
   <si>
-    <t>23594 gi|822524709|ref|WP_046954623.1| Lsa family ABC-F type ribosomal protection protein [Bacillus cereus] &gt;gi|821617761|gb|KKZ99024.1| hypothetical protein B4147_3608 [Bacillus cereus] &gt;gi|821649878|gb|KLA30536.1| hypothetical protein B4077_3756 [Bacillus cereus] lsaB 3003111 sarg，23773 ZP_03984253 ABC superfamily ATP binding cassette transporter, ABC protein Lsa [Enterococcus faecalis HH22] lsaA 3000300 sarg</t>
-  </si>
-  <si>
     <t>macA</t>
   </si>
   <si>
@@ -409,15 +460,12 @@
     <t>marR</t>
   </si>
   <si>
-    <t>11058 CP000675.2.gene1363.p01|[u'multidrug']|marR|marR|unknown SatA 3005045 deeparg，11276 gi:691048809:ref:WP_031996329.1:|[u'multidrug']|marR|marR|unknown emrR 3000516 deeparg</t>
+    <t>ARO:3000718</t>
   </si>
   <si>
     <t>mdfA</t>
   </si>
   <si>
-    <t>Escherichia coli mdfA</t>
-  </si>
-  <si>
     <t>23673 NP_459843 multidrug translocase [Salmonella typhimurium LT2] Escherichia coli mdfA 3001328 sarg</t>
   </si>
   <si>
@@ -433,7 +481,7 @@
     <t>mdtD</t>
   </si>
   <si>
-    <t>22591 gi|446053027|ref|WP_000130882.1| MFS transporter [Escherichia coli] &gt;gi|254810282|sp|B7UTB5.1|MDTD_ECO27 RecName: Full=Putative multidrug resistance protein MdtD &gt;gi|215265372|emb|CAS09768.1| multidrug efflux system protein [Escherichia coli O127:H6 str. E2348/69] emrB 3000074 sarg，21626 gi|134034159|sp|Q0T353.2|MDTD_SHIF8 RecName: Full=Putative multidrug resistance protein MdtD Klebsiella pneumoniae KpnH 3004597 sarg</t>
+    <t>Not sure to choose which:22591 gi|446053027|ref|WP_000130882.1| MFS transporter [Escherichia coli] &gt;gi|254810282|sp|B7UTB5.1|MDTD_ECO27 RecName: Full=Putative multidrug resistance protein MdtD &gt;gi|215265372|emb|CAS09768.1| multidrug efflux system protein [Escherichia coli O127:H6 str. E2348/69] emrB 3000074 sarg，21626 gi|134034159|sp|Q0T353.2|MDTD_SHIF8 RecName: Full=Putative multidrug resistance protein MdtD Klebsiella pneumoniae KpnH 3004597 sarg</t>
   </si>
   <si>
     <t>mdtE</t>
@@ -451,13 +499,13 @@
     <t>mdtK</t>
   </si>
   <si>
-    <t>23670 Q7UAH8 RecName: Full=Multidrug resistance protein mdtK; AltName: Full=Multidrug-efflux transporter hmrM 3003953 sarg，2705 AML99881.1|[u'multidrug']|mdtK|unknown MdtK 3001327 deeparg，6611 383472743|EID64799.1|1|1|cnf2|cnf2||1|||cytotoxic_necrotizing_factor_CNF2 MdtK 3001327 ncbi</t>
+    <t>ARO:3001327</t>
   </si>
   <si>
     <t>mdtL</t>
   </si>
   <si>
-    <t>21594 B7NR12 RecName: Full=Multidrug resistance protein mdtL bcr-1 3003801 sarg，3490 gi:446988854:ref:WP_001066110.1:|[u'multidrug']|mdtL|mdtL|unknown tet(42) 3000572 deeparg</t>
+    <t>ARO:3001215</t>
   </si>
   <si>
     <t>mdtM</t>
@@ -487,16 +535,13 @@
     <t>mel</t>
   </si>
   <si>
-    <t>31 gi:492342289:ref:WP_005816151.1:|[u'macrolide']|mefA|unknown mel 3000616 deeparg</t>
-  </si>
-  <si>
     <t>mepA</t>
   </si>
   <si>
     <t>metallo_beta_lactamase</t>
   </si>
   <si>
-    <t>23896 ASC49561.1 subclass B1 metallo-beta-lactamase NDM-19 [Escherichia coli] NDM-19 3004862 sarg,23895 APZ75411.1 subclass B1 metallo-beta-lactamase NDM-18 [Escherichia coli] NDM-18 3004861 sarg</t>
+    <t>Not sure to choose which:23896 ASC49561.1 subclass B1 metallo-beta-lactamase NDM-19 [Escherichia coli] NDM-19 3004862 sarg,23895 APZ75411.1 subclass B1 metallo-beta-lactamase NDM-18 [Escherichia coli] NDM-18 3004861 sarg</t>
   </si>
   <si>
     <t>mexA</t>
@@ -544,6 +589,9 @@
     <t>mexT</t>
   </si>
   <si>
+    <t>ARO:3000814</t>
+  </si>
+  <si>
     <t>mexW</t>
   </si>
   <si>
@@ -574,16 +622,13 @@
     <t>mtrR</t>
   </si>
   <si>
-    <t>10665 HE999704.1.gene3165.p01|[u'multidrug']|mtrR|mtrR|unknown   deeparg</t>
+    <t>ARO:3000817</t>
   </si>
   <si>
     <t>multidrug_ABC_transporter</t>
   </si>
   <si>
-    <t>msbA</t>
-  </si>
-  <si>
-    <t>23607 gi|1006169930|ref|WP_061737875.1| multidrug ABC transporter ATP-binding protein [Staphylococcus aureus] &gt;gi|995573997|emb|CXX78796.1| Lipid A export ATP-binding/permease protein MsbA [Staphylococcus aureus] msbA 3003950 sarg</t>
+    <t>Not sure to choose which:79 gi:926345639:ref:WP_053677539.1:|FEATURES|multidrug_ABC_transporter|multidrug|multidrug_ABC_transporter msbA 3003950 deeparg,117 gi:517381192:ref:WP_018555350.1:|FEATURES|multidrug_ABC_transporter|multidrug|multidrug_ABC_transporter lmrD 3002882 deeparg</t>
   </si>
   <si>
     <t>norA</t>
@@ -595,28 +640,37 @@
     <t>OKP_A</t>
   </si>
   <si>
+    <t>OKP-A</t>
+  </si>
+  <si>
     <t>OKP_B</t>
   </si>
   <si>
-    <t>22988 AM051153.1.gene1.p01 OKP-B beta-lactamase. OKP-B-4 Curated. Encoded by gene blaOKP-B. ARO:3002437 OKP-B-4 [Klebsiella pneumoniae] OKP-B-4 3002437 sarg,22491 AM850921.2.gene1.p01 beta-lactamase. OKP-B-19 Curated. Encoded by gene blaOKP-B. ARO:3002452 OKP-B-19 [Klebsiella pneumoniae] OKP-B-45 3006151 sarg</t>
+    <t>OKP-B</t>
   </si>
   <si>
     <t>omp36</t>
   </si>
   <si>
+    <t>ARO:3003385</t>
+  </si>
+  <si>
+    <t>Klebsiella aerogenes Omp36</t>
+  </si>
+  <si>
     <t>ompF</t>
   </si>
   <si>
-    <t>7280 16128896|WP_000977920.1|1|1|ompF|ompF|mutation|2|||outer_membrane_protein_F_OmpF Klebsiella pneumoniae OmpK37 3004122 ncbi,14388 gi:447175109:ref:WP_001252365.1:|[u'multidrug']|ompF|ompF|unknown SHV-188 3003155 deeparg</t>
+    <t>ARO:3000265</t>
+  </si>
+  <si>
+    <t>porin OmpF</t>
   </si>
   <si>
     <t>ompR</t>
   </si>
   <si>
-    <t>CpxR</t>
-  </si>
-  <si>
-    <t>17089 CP001918.1.gene5135.p01 two-component system, OmpR family, response regulator CpxR. Encoded by gene ECL_05064. ARO:3000831 cpxR [Enterobacter cloacae subsp. cloacae ATCC 13047] Pseudomonas aeruginosa CpxR 3004054 sarg</t>
+    <t>Not sure to choose which:11596 gi:446603231:ref:WP_000680577.1:|FEATURES|ompR|multidrug|ompR smeR 3003066 deeparg,1713 CP000034.1.gene3672.p01|FEATURES|ompR|multidrug|ompR cpxA 3000830 deeparg</t>
   </si>
   <si>
     <t>opcM</t>
@@ -655,34 +709,49 @@
     <t>OXY_1</t>
   </si>
   <si>
+    <t>OXY-1</t>
+  </si>
+  <si>
     <t>OXY_2</t>
   </si>
   <si>
-    <t>22366 AAQ75378 beta-lactamase OXY-2 [Klebsiella oxytoca] OXY-2-14 3006129 sarg,18860 FJ785626.1.gene1.p01 beta-lactamase OXY-2. Encoded by gene blaOXY-2. OXY-2-10 Curated. ARO:3002405 OXY-2-10 [Klebsiella oxytoca] OXY-2-10 3002405 sarg</t>
+    <t>OXY-2</t>
   </si>
   <si>
     <t>PBP_1A</t>
   </si>
   <si>
-    <t>14233 AAC22099|[u'beta-lactam']|PBP-1A|PBP-1A|unknown vanO 3002913 deeparg,14299 JN645776.1.gene1.p01|[u'beta-lactam']|PBP-1A|PBP-1A|unknown mecA 3000617 deeparg</t>
+    <t>ARO:3003041</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae PBP1a conferring resistance to amoxicillin</t>
+  </si>
+  <si>
+    <t>CARD ARO:CARD Short Name:Spne_PBP1a_AMX</t>
   </si>
   <si>
     <t>PBP_1B</t>
   </si>
   <si>
-    <t>11968 AF101781.1.gene1.p01|[u'beta-lactam']|PBP-1B|PBP-1B|unknown   deeparg</t>
+    <t>PBP-1B</t>
   </si>
   <si>
     <t>PBP_2X</t>
   </si>
   <si>
-    <t>14533 EDK78328|[u'beta-lactam']|PBP-2X|PBP-2X|unknown   deeparg</t>
+    <t>ARO:3003043</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae PBP2x conferring resistance to amoxicillin</t>
+  </si>
+  <si>
+    <t>CARD ARO:CARD Short Name Spne_PBP2x_AMX</t>
   </si>
   <si>
     <t>penA</t>
   </si>
   <si>
-    <t>464 P74872|[u'beta-lactam']|penA|penA|unknown mecA 3000617 deeparg,2798 654274437|WP_027789588.1|1|1|penA-A_Burk|penA-A_Burk|hydrolase|2|BETA-LACTAM|BETA-LACTAM|PenA_family_class_A_beta-lactamase LRA-1 3002482 ncbi</t>
+    <t>Not sure to choose which:464 P74872|[u'beta-lactam']|penA|penA|unknown mecA 3000617 deeparg,2798 654274437|WP_027789588.1|1|1|penA-A_Burk|penA-A_Burk|hydrolase|2|BETA-LACTAM|BETA-LACTAM|PenA_family_class_A_beta-lactamase LRA-1 3002482 ncbi</t>
   </si>
   <si>
     <t>pmrA</t>
@@ -691,15 +760,18 @@
     <t>qacG</t>
   </si>
   <si>
-    <t>qacH</t>
-  </si>
-  <si>
-    <t>14126 gi|488408518|ref|WP_002477903.1| quaternary ammonium compound efflux SMR transporter QacG [Staphylococcus epidermidis] &gt;gi|410875276|gb|EKS23200.1| quaternary ammonium compound-resistance protein qacG [Staphylococcus epidermidis BVS058A4] qacH 3003836 sarg</t>
+    <t>ARO:3007015</t>
   </si>
   <si>
     <t>qepA</t>
   </si>
   <si>
+    <t>ARO:3000448</t>
+  </si>
+  <si>
+    <t>QepA1</t>
+  </si>
+  <si>
     <t>qnrA</t>
   </si>
   <si>
@@ -709,22 +781,19 @@
     <t>qnrS</t>
   </si>
   <si>
-    <t>214 ZP_01811734|[u'quinolone']|QnrS|unknown QnrS2 3002791 deeparg,10766 gi:658949281:ref:WP_029802054.1:|[u'quinolone']|qnrS|qnrS|unknown QnrS5 3002794 deeparg,19446 ACJ24509 QnrS [Salmonella enterica subsp. enterica serovar Stanley] QnrS4 3002793 sarg</t>
-  </si>
-  <si>
     <t>rifampin_monooxygenase</t>
   </si>
   <si>
-    <t>iri</t>
-  </si>
-  <si>
-    <t>22304 U56415.1.orf0.gene.p01 rifampin monooxygenase. Encoded by gene iri. ARO:3000445 rifampin monooxygenase [Rhodococcus equi] iri 3002884 sarg</t>
+    <t>ARO:3000445</t>
+  </si>
+  <si>
+    <t>rifampin monooxygenase</t>
   </si>
   <si>
     <t>rifampin_resistance_protein</t>
   </si>
   <si>
-    <t>14333 AF205943.1.gene12.p01 ADP-ribosylating transferase. Encoded by gene arr2. Arr2; rifampin resistance protein. ARO:3000390 rifampin ADP-ribosyltransferase (Arr) [Escherichia coli] arr-2 3002847 sarg,5467 NP_536537|[u'rifamycin']|rifampin_resistance_protein|rifampin_resistance_protein|unknown TEM-139 3001003 deeparg</t>
+    <t>Not sure to choose which:14333 AF205943.1.gene12.p01 ADP-ribosylating transferase. Encoded by gene arr2. Arr2; rifampin resistance protein. ARO:3000390 rifampin ADP-ribosyltransferase (Arr) [Escherichia coli] arr-2 3002847 sarg,5467 NP_536537|[u'rifamycin']|rifampin_resistance_protein|rifampin_resistance_protein|unknown TEM-139 3001003 deeparg</t>
   </si>
   <si>
     <t>rosA</t>
@@ -751,7 +820,7 @@
     <t>streptomycin_resistance_protein</t>
   </si>
   <si>
-    <t>15280 CAC86407 streptomycin resistance protein B [Escherichia coli] APH(6)-Id 3002660 sarg,16220 P12055 RecName: Full=Streptomycin resistance protein aadK 3002627 sarg,23743 AJ489618.1.orf2.gene.p01 streptomycin resistance protein. Encoded by gene aadE. ARO:3000225 ANT(6) [Campylobacter jejuni] aad(6) 3002628 sarg</t>
+    <t>Not sure to choose which:15280 CAC86407 streptomycin resistance protein B [Escherichia coli] APH(6)-Id 3002660 sarg,16220 P12055 RecName: Full=Streptomycin resistance protein aadK 3002627 sarg,23743 AJ489618.1.orf2.gene.p01 streptomycin resistance protein. Encoded by gene aadE. ARO:3000225 ANT(6) [Campylobacter jejuni] aad(6) 3002628 sarg</t>
   </si>
   <si>
     <t>streptothricin_acetyltransferase</t>
@@ -772,7 +841,7 @@
     <t>tcmA</t>
   </si>
   <si>
-    <t>3470 918359733|WP_052413892.1|1|1|tcmA|tcmA||2|TETRACENOMYCIN|TETRACENOMYCIN|tetracenomycin_C_efflux_MFS_transporter Acinetobacter baumannii AmvA 3004577 ncbi,10210 YP_002193132|[u'tetracenomycin']|tcmA|unknown qacA 3003046 deeparg,9011 YP_002181880|[u'tetracenomycin']|tcmA|unknown lfrA 3003967 deeparg</t>
+    <t>ARO:3003554</t>
   </si>
   <si>
     <t>tet32</t>
@@ -781,10 +850,7 @@
     <t>tet34</t>
   </si>
   <si>
-    <t>ErmU</t>
-  </si>
-  <si>
-    <t>15967 BAB59035 tet34 [Vibrio sp. No.6] ErmU 3001305 sarg</t>
+    <t>ARO:3002870</t>
   </si>
   <si>
     <t>tet40</t>
@@ -832,10 +898,7 @@
     <t>tetR</t>
   </si>
   <si>
-    <t>MexL</t>
-  </si>
-  <si>
-    <t>23537 gi|488062072|ref|WP_002133469.1| TetR family transcriptional regulator [Acinetobacter baumannii] &gt;gi|410414957|gb|EKP66749.1| transcriptional regulator, TetR family [Acinetobacter baumannii OIFC035] MexL 3003710 sarg</t>
+    <t>ARO:3003479</t>
   </si>
   <si>
     <t>tetS</t>
@@ -877,28 +940,49 @@
     <t>vanH</t>
   </si>
   <si>
+    <t>ARO:3000006</t>
+  </si>
+  <si>
     <t>vanR</t>
   </si>
   <si>
+    <t>ARO:3000574</t>
+  </si>
+  <si>
     <t>vanS</t>
   </si>
   <si>
+    <t>ARO:3000071</t>
+  </si>
+  <si>
     <t>vanT</t>
   </si>
   <si>
+    <t>ARO:3000372</t>
+  </si>
+  <si>
     <t>vanW</t>
   </si>
   <si>
+    <t>ARO:3000002</t>
+  </si>
+  <si>
     <t>vanX</t>
   </si>
   <si>
+    <t>ARO:3000011</t>
+  </si>
+  <si>
     <t>vanY</t>
   </si>
   <si>
+    <t>ARO:3000077</t>
+  </si>
+  <si>
     <t>vanZ</t>
   </si>
   <si>
-    <t>vanZ gene in vanA cluster,vanZ gene in vanF cluster</t>
+    <t>ARO:3000116</t>
   </si>
   <si>
     <t>vatB</t>
@@ -930,9 +1014,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -952,15 +1036,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -979,7 +1078,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,15 +1091,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1015,22 +1107,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1039,9 +1115,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,14 +1127,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1079,6 +1147,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1088,7 +1164,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,6 +1172,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,13 +1207,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,19 +1291,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,13 +1327,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,55 +1369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,55 +1387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,6 +1398,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1332,20 +1434,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,26 +1464,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,149 +1506,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,13 +1658,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1902,190 +1995,231 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="22.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="41.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="13.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="24.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1197</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1287</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>1287</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>266</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>266</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
+      <c r="E17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="1">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1">
-        <v>72</v>
+        <v>615</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2097,1716 +2231,1904 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1">
-        <v>615</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>1965</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>42</v>
       </c>
       <c r="B22">
-        <v>1965</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>108</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>120</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>41</v>
+      <c r="A28" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B29">
-        <v>334</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>1891</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B30">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>4888</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>64</v>
       </c>
       <c r="B31">
-        <v>4888</v>
-      </c>
-      <c r="D31" t="s">
-        <v>48</v>
+        <v>134550</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B32">
-        <v>134550</v>
+        <v>68191</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B33">
-        <v>68191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>51</v>
+        <v>567531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B34">
-        <v>567531</v>
+        <v>14757</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>52</v>
+      <c r="A35" t="s">
+        <v>70</v>
       </c>
       <c r="B35">
-        <v>14757</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>53</v>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B36">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B38">
+        <v>34</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39">
         <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>514</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B41">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>60</v>
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B42">
-        <v>2589</v>
+        <v>1</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>61</v>
+      <c r="A43" t="s">
+        <v>83</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
-        <v>68</v>
+      <c r="C47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>90</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B51">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>74</v>
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B52">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>1561</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B53">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
+        <v>5766</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54">
+        <v>4210</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55">
         <v>76</v>
       </c>
-      <c r="B54">
-        <v>5766</v>
-      </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56">
+        <v>92</v>
+      </c>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58">
+        <v>212</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55">
-        <v>4210</v>
-      </c>
-      <c r="D55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57">
-        <v>92</v>
-      </c>
-      <c r="C57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="5" t="s">
-        <v>85</v>
+    <row r="59" spans="1:5">
+      <c r="A59" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B59">
-        <v>212</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" t="s">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>88</v>
+      <c r="A60" t="s">
+        <v>109</v>
       </c>
       <c r="B60">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64">
+        <v>38</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65">
         <v>2</v>
       </c>
-      <c r="C61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63">
-        <v>34</v>
-      </c>
-      <c r="C63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65">
-        <v>38</v>
-      </c>
       <c r="D65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>102</v>
+        <v>51</v>
+      </c>
+      <c r="D66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B67">
-        <v>51</v>
-      </c>
-      <c r="C67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
-        <v>104</v>
+        <v>6</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="B68">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>105</v>
+        <v>7837</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="5" t="s">
-        <v>107</v>
+        <v>126</v>
+      </c>
+      <c r="E68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B69">
-        <v>7837</v>
-      </c>
-      <c r="C69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69" t="s">
-        <v>109</v>
+        <v>576</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
-        <v>110</v>
+      <c r="A70" t="s">
+        <v>131</v>
       </c>
       <c r="B70">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B71">
-        <v>569</v>
-      </c>
-      <c r="C71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>317</v>
+      </c>
+      <c r="D71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B72">
-        <v>317</v>
-      </c>
-      <c r="C72" t="s">
-        <v>115</v>
+        <v>688</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B73">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B74">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>120</v>
+      <c r="D75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>46014</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>142</v>
       </c>
       <c r="B77">
-        <v>46014</v>
-      </c>
-      <c r="D77" t="s">
-        <v>123</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B78">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>125</v>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B79">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>4378</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>145</v>
       </c>
       <c r="B80">
-        <v>4378</v>
-      </c>
-      <c r="D80" t="s">
-        <v>127</v>
+        <v>12762</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B81">
-        <v>12762</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>129</v>
+        <v>567852</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="B82">
-        <v>567852</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>65680</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B83">
-        <v>65680</v>
+        <v>470</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="5" t="s">
-        <v>132</v>
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>151</v>
       </c>
       <c r="B84">
-        <v>470</v>
-      </c>
-      <c r="C84" t="s">
-        <v>133</v>
-      </c>
-      <c r="D84" t="s">
-        <v>134</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B85">
-        <v>5393</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B86">
-        <v>2915</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>137</v>
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="B87">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>156</v>
       </c>
       <c r="B88">
-        <v>151</v>
-      </c>
-      <c r="D88" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B89">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B90">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B91">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>143</v>
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="B92">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>82095</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="B93">
-        <v>82095</v>
-      </c>
-      <c r="D93" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2" t="s">
-        <v>146</v>
+        <v>2843</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>164</v>
       </c>
       <c r="B94">
-        <v>2843</v>
-      </c>
-      <c r="D94" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B95">
-        <v>133</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B96">
-        <v>3026</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B97">
-        <v>2327</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B98">
-        <v>3054</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B99">
-        <v>1800</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B100">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>154</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="B101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="4" t="s">
-        <v>155</v>
+        <v>558</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>173</v>
       </c>
       <c r="B102">
-        <v>558</v>
-      </c>
-      <c r="C102" t="s">
-        <v>156</v>
-      </c>
-      <c r="D102" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>158</v>
+        <v>95868</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B103">
-        <v>95868</v>
+        <v>95</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="2" t="s">
-        <v>159</v>
+      <c r="A104" t="s">
+        <v>176</v>
       </c>
       <c r="B104">
-        <v>95</v>
+        <v>517</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B105">
-        <v>517</v>
-      </c>
-      <c r="C105" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B106">
-        <v>17</v>
-      </c>
-      <c r="C106" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>709</v>
+      </c>
+      <c r="D106" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B107">
-        <v>709</v>
-      </c>
-      <c r="C107" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>1186</v>
+      </c>
+      <c r="D107" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B108">
-        <v>1186</v>
-      </c>
-      <c r="C108" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>105</v>
+      </c>
+      <c r="D108" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B109">
-        <v>105</v>
-      </c>
-      <c r="C109" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>849</v>
+      </c>
+      <c r="D109" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B110">
-        <v>849</v>
-      </c>
-      <c r="C110" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>173</v>
+        <v>7495</v>
+      </c>
+      <c r="D110" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="B111">
-        <v>7495</v>
-      </c>
-      <c r="C111" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="2" t="s">
-        <v>175</v>
+        <v>31338</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>192</v>
       </c>
       <c r="B112">
-        <v>31338</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>703</v>
+      </c>
+      <c r="D112" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B113">
-        <v>703</v>
-      </c>
-      <c r="C113" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B114">
-        <v>140</v>
+        <v>17682</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B115">
-        <v>17682</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B116">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B117">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B118">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B119">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>184</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="B120">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>2153</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B121">
-        <v>2153</v>
-      </c>
-      <c r="D121" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="5" t="s">
-        <v>187</v>
+        <v>228726</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>205</v>
       </c>
       <c r="B122">
-        <v>228726</v>
-      </c>
-      <c r="C122" t="s">
-        <v>188</v>
-      </c>
-      <c r="D122" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B123">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>191</v>
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B124">
-        <v>4482</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="5" t="s">
-        <v>192</v>
+        <v>3</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B125">
         <v>3</v>
       </c>
+      <c r="D125" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="2" t="s">
-        <v>193</v>
+      <c r="A126" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="B126">
-        <v>3</v>
-      </c>
-      <c r="D126" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="2" t="s">
-        <v>195</v>
+        <v>862</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="B127">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>1514</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B128">
-        <v>1514</v>
-      </c>
-      <c r="D128" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="5" t="s">
-        <v>198</v>
+        <v>13024</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>219</v>
       </c>
       <c r="B129">
-        <v>13024</v>
-      </c>
-      <c r="C129" t="s">
-        <v>199</v>
-      </c>
-      <c r="D129" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B130">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B131">
-        <v>2</v>
-      </c>
-      <c r="C131" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>804</v>
+      </c>
+      <c r="D131" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B132">
-        <v>804</v>
-      </c>
-      <c r="C132" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
-      <c r="C133" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B134">
+        <v>57</v>
+      </c>
+      <c r="D134" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B135">
         <v>1</v>
       </c>
-      <c r="C134" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>210</v>
-      </c>
-      <c r="B135">
-        <v>57</v>
-      </c>
-      <c r="C135" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="D135" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="2" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2" t="s">
-        <v>213</v>
+      <c r="D136" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="D137" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>35189</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="B138">
-        <v>35189</v>
-      </c>
-      <c r="D138" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2" t="s">
-        <v>217</v>
+        <v>18808</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="B139">
-        <v>18808</v>
-      </c>
-      <c r="D139" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>7303</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B140">
-        <v>7303</v>
-      </c>
-      <c r="D140" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2" t="s">
-        <v>221</v>
+        <v>34150</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="B141">
-        <v>34150</v>
-      </c>
-      <c r="D141" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1" t="s">
-        <v>223</v>
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="B142">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="5" t="s">
-        <v>224</v>
+        <v>2</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B143">
-        <v>2</v>
-      </c>
-      <c r="C143" t="s">
-        <v>225</v>
-      </c>
-      <c r="D143" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>4163</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B144">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>44</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="B145">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>244</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="B146">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2" t="s">
-        <v>230</v>
+        <v>63</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="B147">
-        <v>63</v>
-      </c>
-      <c r="D147" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="5" t="s">
-        <v>232</v>
+        <v>35612</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B148">
-        <v>35612</v>
-      </c>
-      <c r="C148" t="s">
-        <v>233</v>
-      </c>
-      <c r="D148" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2" t="s">
-        <v>235</v>
+        <v>4</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>260</v>
       </c>
       <c r="B149">
-        <v>4</v>
-      </c>
-      <c r="D149" t="s">
-        <v>236</v>
+        <v>15600</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="B150">
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>39679</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="B151">
-        <v>39679</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="B152">
-        <v>2</v>
-      </c>
-      <c r="C152" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="B153">
-        <v>123</v>
+        <v>229</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B154">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>243</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2" t="s">
-        <v>244</v>
+        <v>12</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="B156">
+        <v>10524</v>
+      </c>
+      <c r="D156" t="s">
+        <v>270</v>
+      </c>
+      <c r="E156" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>272</v>
+      </c>
+      <c r="B157">
         <v>12</v>
-      </c>
-      <c r="D156" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B157">
-        <v>10524</v>
-      </c>
-      <c r="C157" t="s">
-        <v>247</v>
-      </c>
-      <c r="D157" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B158">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>250</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="B159">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2" t="s">
-        <v>251</v>
+        <v>11433</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="B160">
-        <v>11433</v>
-      </c>
-      <c r="D160" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1" t="s">
-        <v>253</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="B161">
+        <v>4529</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D161"/>
+      <c r="E161" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>279</v>
+      </c>
+      <c r="B162">
+        <v>27</v>
+      </c>
+      <c r="D162" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>281</v>
+      </c>
+      <c r="B163">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>283</v>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>285</v>
+      </c>
+      <c r="B165">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>287</v>
+      </c>
+      <c r="B166">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B162">
-        <v>4529</v>
-      </c>
-      <c r="C162" t="s">
-        <v>255</v>
-      </c>
-      <c r="D162" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>257</v>
-      </c>
-      <c r="B163">
-        <v>27</v>
-      </c>
-      <c r="C163" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>259</v>
-      </c>
-      <c r="B164">
-        <v>14</v>
-      </c>
-      <c r="C164" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>261</v>
-      </c>
-      <c r="B165">
-        <v>9</v>
-      </c>
-      <c r="C165" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>263</v>
-      </c>
-      <c r="B166">
-        <v>6</v>
-      </c>
-      <c r="C166" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="B167">
-        <v>2</v>
-      </c>
-      <c r="C167" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>267</v>
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B168">
-        <v>15</v>
-      </c>
-      <c r="C168" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="B169">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1" t="s">
-        <v>270</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="B170">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="5" t="s">
-        <v>271</v>
+        <v>6659</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D170"/>
+      <c r="E170" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="B171">
-        <v>6659</v>
-      </c>
-      <c r="C171" t="s">
-        <v>272</v>
-      </c>
-      <c r="D171" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="1" t="s">
-        <v>274</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>296</v>
       </c>
       <c r="B172">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>275</v>
+        <v>6970</v>
+      </c>
+      <c r="D172" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="B173">
-        <v>6970</v>
-      </c>
-      <c r="C173" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="1" t="s">
-        <v>277</v>
+        <v>9675</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>299</v>
       </c>
       <c r="B174">
-        <v>9675</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="B175">
-        <v>3</v>
-      </c>
-      <c r="C175" t="s">
-        <v>279</v>
+        <v>17991</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="B176">
-        <v>17991</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="B177">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="B178">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="B179">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B180">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>285</v>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="B181">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="2" t="s">
-        <v>286</v>
+        <v>27</v>
+      </c>
+      <c r="C181" t="s">
+        <v>308</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="B182">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="2" t="s">
-        <v>287</v>
+        <v>30567</v>
+      </c>
+      <c r="C182" t="s">
+        <v>310</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="B183">
-        <v>30567</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="2" t="s">
-        <v>288</v>
+        <v>798620</v>
+      </c>
+      <c r="C183" t="s">
+        <v>312</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="B184">
-        <v>798620</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="2" t="s">
-        <v>289</v>
+        <v>59616</v>
+      </c>
+      <c r="C184" t="s">
+        <v>314</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="B185">
-        <v>59616</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="2" t="s">
-        <v>290</v>
+        <v>11014</v>
+      </c>
+      <c r="C185" t="s">
+        <v>316</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="B186">
-        <v>11014</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="2" t="s">
-        <v>291</v>
+        <v>10026</v>
+      </c>
+      <c r="C186" t="s">
+        <v>318</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="B187">
-        <v>10026</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="2" t="s">
-        <v>292</v>
+        <v>16320</v>
+      </c>
+      <c r="C187" t="s">
+        <v>320</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="B188">
-        <v>16320</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2" t="s">
-        <v>293</v>
+        <v>15799</v>
+      </c>
+      <c r="C188" t="s">
+        <v>322</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>323</v>
       </c>
       <c r="B189">
-        <v>15799</v>
-      </c>
-      <c r="D189" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="B190">
-        <v>345</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="B191">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>297</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="B192">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="5" t="s">
-        <v>298</v>
+        <v>186</v>
+      </c>
+      <c r="D192" t="s">
+        <v>327</v>
+      </c>
+      <c r="E192" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>329</v>
       </c>
       <c r="B193">
-        <v>186</v>
-      </c>
-      <c r="C193" t="s">
-        <v>299</v>
-      </c>
-      <c r="D193" t="s">
-        <v>300</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="B194">
-        <v>5675</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>302</v>
-      </c>
-      <c r="B195">
         <v>7037</v>
       </c>
     </row>
